--- a/templates/AutomationOrg/Project To Project Transfer.xlsx
+++ b/templates/AutomationOrg/Project To Project Transfer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ABF868-0E0D-470A-9E5D-96CFBB082D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF7CAE1-639C-4380-B886-2F5FA989E8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB441E9F-4FBE-410A-8F63-C9ADD7579EED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Item Name</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>100 Home Project</t>
-  </si>
-  <si>
-    <t>6/29/2021</t>
   </si>
   <si>
     <t>From Lot</t>
@@ -481,7 +478,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A7" sqref="A7:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,13 +515,13 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
         <v>1</v>
@@ -535,54 +532,51 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
       </c>
       <c r="J2">
         <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -590,54 +584,51 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -645,28 +636,28 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
